--- a/data/trans_orig/P36BPD04_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE4E212-674E-4147-895B-5DA89839EEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{684E1232-7E4C-4F15-B632-67F8316F2ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CAEB976F-248D-4D4F-9EEE-E7953E796758}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C63408CA-B044-4EDA-A8BF-6D980EEECC8C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="334">
   <si>
-    <t>Población según el número de piezas de fruta que consume al día en 2023 (Tasa respuesta: 99,86%)</t>
+    <t>Población según el consumo de fruta en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,964 +74,964 @@
     <t>5,79%</t>
   </si>
   <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>No diariamente, pero tres o más veces por semana</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>Diariamente aunque menos de tres veces al día</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>Tres o más al día</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>No diariamente, pero tres o más veces por semana</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>Diariamente aunque menos de tres veces al día</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>Tres o más al día</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
+    <t>19,32%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
   </si>
   <si>
     <t>56,87%</t>
   </si>
   <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
   </si>
   <si>
     <t>57,16%</t>
   </si>
   <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
   </si>
   <si>
     <t>57,03%</t>
   </si>
   <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
+    <t>58,57%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
   <si>
     <t>20,15%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>18,48%</t>
+    <t>18,55%</t>
   </si>
   <si>
     <t>20,86%</t>
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94E45A1-585B-4D78-8097-0F8864E6C5A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C05984-8AC7-4C7F-A120-6ABE121136FF}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1732,7 +1732,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -1741,13 +1741,13 @@
         <v>14947</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -1756,13 +1756,13 @@
         <v>28436</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,13 +1777,13 @@
         <v>260298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
@@ -1792,13 +1792,13 @@
         <v>271403</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>869</v>
@@ -1807,18 +1807,18 @@
         <v>531700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1830,13 +1830,13 @@
         <v>47687</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>37</v>
@@ -1845,13 +1845,13 @@
         <v>28156</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>70</v>
@@ -1860,13 +1860,13 @@
         <v>75843</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,13 +1881,13 @@
         <v>127301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>142</v>
@@ -1896,13 +1896,13 @@
         <v>116065</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>236</v>
@@ -1911,13 +1911,13 @@
         <v>243366</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,13 +1932,13 @@
         <v>319151</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>498</v>
@@ -1947,13 +1947,13 @@
         <v>379038</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>732</v>
@@ -1962,13 +1962,13 @@
         <v>698189</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +1983,13 @@
         <v>25158</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -1998,13 +1998,13 @@
         <v>31307</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -2013,13 +2013,13 @@
         <v>56466</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2034,13 @@
         <v>519297</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>717</v>
@@ -2049,13 +2049,13 @@
         <v>554566</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1099</v>
@@ -2064,18 +2064,18 @@
         <v>1073864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2087,13 +2087,13 @@
         <v>25648</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -2102,13 +2102,13 @@
         <v>20278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -2117,13 +2117,13 @@
         <v>45926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2138,13 @@
         <v>70105</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>57</v>
@@ -2153,13 +2153,13 @@
         <v>44161</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>125</v>
@@ -2168,13 +2168,13 @@
         <v>114266</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,13 +2189,13 @@
         <v>159518</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>296</v>
@@ -2204,13 +2204,13 @@
         <v>203163</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>483</v>
@@ -2219,13 +2219,13 @@
         <v>362681</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2240,13 @@
         <v>66969</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>150</v>
@@ -2255,13 +2255,13 @@
         <v>102336</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>229</v>
@@ -2270,13 +2270,13 @@
         <v>169306</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2291,13 @@
         <v>322240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>530</v>
@@ -2306,13 +2306,13 @@
         <v>369938</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>890</v>
@@ -2321,18 +2321,18 @@
         <v>692179</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2344,13 +2344,13 @@
         <v>7942</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -2359,13 +2359,13 @@
         <v>13193</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -2374,13 +2374,13 @@
         <v>21134</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2395,13 @@
         <v>34304</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -2410,13 +2410,13 @@
         <v>40889</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
@@ -2425,13 +2425,13 @@
         <v>75193</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2446,13 @@
         <v>144816</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>301</v>
@@ -2461,13 +2461,13 @@
         <v>214310</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="M21" s="7">
         <v>444</v>
@@ -2515,7 +2515,7 @@
         <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>154</v>
@@ -2530,10 +2530,10 @@
         <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2548,13 @@
         <v>322240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>599</v>
@@ -2563,13 +2563,13 @@
         <v>428556</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>891</v>
@@ -2578,18 +2578,18 @@
         <v>750796</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2601,7 +2601,7 @@
         <v>1607</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>159</v>
@@ -2682,13 +2682,13 @@
         <v>15653</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2703,13 @@
         <v>128045</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>304</v>
@@ -2718,13 +2718,13 @@
         <v>137740</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>488</v>
@@ -2733,13 +2733,13 @@
         <v>265785</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2754,13 @@
         <v>56593</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>175</v>
@@ -2769,13 +2769,13 @@
         <v>86610</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>256</v>
@@ -2784,13 +2784,13 @@
         <v>143203</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2805,13 @@
         <v>196748</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>491</v>
@@ -2820,13 +2820,13 @@
         <v>231496</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>770</v>
@@ -2835,18 +2835,18 @@
         <v>428244</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2858,13 +2858,13 @@
         <v>9692</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -2873,7 +2873,7 @@
         <v>9333</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>198</v>
@@ -2963,10 +2963,10 @@
         <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>310</v>
@@ -2975,13 +2975,13 @@
         <v>176426</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>538</v>
@@ -2990,13 +2990,13 @@
         <v>343498</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3011,13 @@
         <v>33032</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>70</v>
@@ -3026,13 +3026,13 @@
         <v>35081</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>126</v>
@@ -3041,13 +3041,13 @@
         <v>68114</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3062,13 @@
         <v>277223</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>460</v>
@@ -3077,13 +3077,13 @@
         <v>275622</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>831</v>
@@ -3092,18 +3092,18 @@
         <v>552845</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3115,13 +3115,13 @@
         <v>72539</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>103</v>
@@ -3130,13 +3130,13 @@
         <v>195246</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>164</v>
@@ -3145,13 +3145,13 @@
         <v>267785</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,10 +3166,10 @@
         <v>91540</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>240</v>
@@ -3223,7 +3223,7 @@
         <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>420</v>
@@ -3232,13 +3232,13 @@
         <v>291159</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>661</v>
@@ -3247,13 +3247,13 @@
         <v>543028</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3268,13 @@
         <v>210569</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>322</v>
@@ -3283,13 +3283,13 @@
         <v>222564</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>533</v>
@@ -3298,13 +3298,13 @@
         <v>433133</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3319,13 @@
         <v>626518</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>960</v>
@@ -3334,13 +3334,13 @@
         <v>804203</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>1557</v>
@@ -3349,18 +3349,18 @@
         <v>1430720</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3372,13 +3372,13 @@
         <v>22914</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H39" s="7">
         <v>23</v>
@@ -3387,13 +3387,13 @@
         <v>18503</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M39" s="7">
         <v>42</v>
@@ -3402,13 +3402,13 @@
         <v>41417</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3423,13 @@
         <v>83124</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H40" s="7">
         <v>87</v>
@@ -3438,13 +3438,13 @@
         <v>70201</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>164</v>
@@ -3453,13 +3453,13 @@
         <v>153325</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3474,13 @@
         <v>639829</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H41" s="7">
         <v>818</v>
@@ -3489,13 +3489,13 @@
         <v>666070</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M41" s="7">
         <v>1380</v>
@@ -3504,13 +3504,13 @@
         <v>1305899</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3525,13 @@
         <v>113560</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>134</v>
@@ -3540,13 +3540,13 @@
         <v>113661</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="M42" s="7">
         <v>238</v>
@@ -3555,13 +3555,13 @@
         <v>227221</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3576,13 @@
         <v>859428</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" s="7">
         <v>1062</v>
@@ -3591,13 +3591,13 @@
         <v>868434</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M43" s="7">
         <v>1824</v>
@@ -3606,13 +3606,13 @@
         <v>1727862</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3629,13 @@
         <v>203091</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>299</v>
+        <v>175</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H44" s="7">
         <v>246</v>
@@ -3644,13 +3644,13 @@
         <v>302285</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M44" s="7">
         <v>420</v>
@@ -3659,13 +3659,13 @@
         <v>505376</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>48</v>
+        <v>302</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3680,13 @@
         <v>601762</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H45" s="7">
         <v>788</v>
@@ -3695,13 +3695,13 @@
         <v>560657</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M45" s="7">
         <v>1373</v>
@@ -3710,13 +3710,13 @@
         <v>1162419</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3731,13 @@
         <v>1924589</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H46" s="7">
         <v>3173</v>
@@ -3746,13 +3746,13 @@
         <v>2174604</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M46" s="7">
         <v>5106</v>
@@ -3761,10 +3761,10 @@
         <v>4099194</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>323</v>
@@ -3833,13 +3833,13 @@
         <v>3383991</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" s="7">
         <v>5357</v>
@@ -3848,13 +3848,13 @@
         <v>3804218</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M48" s="7">
         <v>8731</v>
@@ -3863,13 +3863,13 @@
         <v>7188210</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36BPD04_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{684E1232-7E4C-4F15-B632-67F8316F2ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A12B95FE-9188-4C35-9CF4-3344C2FCBB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C63408CA-B044-4EDA-A8BF-6D980EEECC8C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B879C85D-B4A4-4CD1-8E86-7ACC8BDA3328}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
   <si>
     <t>Población según el consumo de fruta en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -71,121 +71,121 @@
     <t>Menos de tres veces por semana</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>No diariamente, pero tres o más veces por semana</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
   </si>
   <si>
     <t>Diariamente aunque menos de tres veces al día</t>
   </si>
   <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
   </si>
   <si>
     <t>Tres o más al día</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,847 +194,859 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>22,66%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
   </si>
   <si>
     <t>4,6%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1449,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C05984-8AC7-4C7F-A120-6ABE121136FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6864B58B-E757-4327-AEDF-7B2AB51AA116}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1570,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>15062</v>
+        <v>17196</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1585,7 +1597,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>15580</v>
+        <v>18667</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1600,7 +1612,7 @@
         <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>30642</v>
+        <v>35863</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1621,7 +1633,7 @@
         <v>139</v>
       </c>
       <c r="D5" s="7">
-        <v>117458</v>
+        <v>141257</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1636,7 +1648,7 @@
         <v>253</v>
       </c>
       <c r="I5" s="7">
-        <v>134176</v>
+        <v>141891</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1651,7 +1663,7 @@
         <v>392</v>
       </c>
       <c r="N5" s="7">
-        <v>251634</v>
+        <v>283147</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1672,7 +1684,7 @@
         <v>154</v>
       </c>
       <c r="D6" s="7">
-        <v>114290</v>
+        <v>137715</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1687,7 +1699,7 @@
         <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>106699</v>
+        <v>113481</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1702,7 +1714,7 @@
         <v>380</v>
       </c>
       <c r="N6" s="7">
-        <v>220988</v>
+        <v>251196</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1723,7 +1735,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>13488</v>
+        <v>15275</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1738,7 +1750,7 @@
         <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>14947</v>
+        <v>15596</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1753,7 +1765,7 @@
         <v>55</v>
       </c>
       <c r="N7" s="7">
-        <v>28436</v>
+        <v>30871</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1774,7 +1786,7 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1789,7 +1801,7 @@
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1804,7 +1816,7 @@
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1827,7 +1839,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>47687</v>
+        <v>47509</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1842,7 +1854,7 @@
         <v>37</v>
       </c>
       <c r="I9" s="7">
-        <v>28156</v>
+        <v>26419</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1857,7 +1869,7 @@
         <v>70</v>
       </c>
       <c r="N9" s="7">
-        <v>75843</v>
+        <v>73928</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1878,7 +1890,7 @@
         <v>94</v>
       </c>
       <c r="D10" s="7">
-        <v>127301</v>
+        <v>125760</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1893,7 +1905,7 @@
         <v>142</v>
       </c>
       <c r="I10" s="7">
-        <v>116065</v>
+        <v>107391</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1908,7 +1920,7 @@
         <v>236</v>
       </c>
       <c r="N10" s="7">
-        <v>243366</v>
+        <v>233150</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1929,7 +1941,7 @@
         <v>234</v>
       </c>
       <c r="D11" s="7">
-        <v>319151</v>
+        <v>320868</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1944,7 +1956,7 @@
         <v>498</v>
       </c>
       <c r="I11" s="7">
-        <v>379038</v>
+        <v>352574</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1959,7 +1971,7 @@
         <v>732</v>
       </c>
       <c r="N11" s="7">
-        <v>698189</v>
+        <v>673442</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1980,7 +1992,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>25158</v>
+        <v>24254</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1995,7 +2007,7 @@
         <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>31307</v>
+        <v>28586</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -2010,7 +2022,7 @@
         <v>61</v>
       </c>
       <c r="N12" s="7">
-        <v>56466</v>
+        <v>52840</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -2031,7 +2043,7 @@
         <v>382</v>
       </c>
       <c r="D13" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2046,7 +2058,7 @@
         <v>717</v>
       </c>
       <c r="I13" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2061,7 +2073,7 @@
         <v>1099</v>
       </c>
       <c r="N13" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2084,7 +2096,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>25648</v>
+        <v>25255</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -2099,7 +2111,7 @@
         <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>20278</v>
+        <v>19042</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -2114,16 +2126,16 @@
         <v>53</v>
       </c>
       <c r="N14" s="7">
-        <v>45926</v>
+        <v>44298</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,28 +2147,28 @@
         <v>68</v>
       </c>
       <c r="D15" s="7">
-        <v>70105</v>
+        <v>69618</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>57</v>
       </c>
       <c r="I15" s="7">
-        <v>44161</v>
+        <v>41573</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>101</v>
@@ -2165,7 +2177,7 @@
         <v>125</v>
       </c>
       <c r="N15" s="7">
-        <v>114266</v>
+        <v>111192</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>102</v>
@@ -2186,7 +2198,7 @@
         <v>187</v>
       </c>
       <c r="D16" s="7">
-        <v>159518</v>
+        <v>155989</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>105</v>
@@ -2201,7 +2213,7 @@
         <v>296</v>
       </c>
       <c r="I16" s="7">
-        <v>203163</v>
+        <v>189583</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>108</v>
@@ -2216,7 +2228,7 @@
         <v>483</v>
       </c>
       <c r="N16" s="7">
-        <v>362681</v>
+        <v>345572</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>111</v>
@@ -2237,7 +2249,7 @@
         <v>79</v>
       </c>
       <c r="D17" s="7">
-        <v>66969</v>
+        <v>65187</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>114</v>
@@ -2252,7 +2264,7 @@
         <v>150</v>
       </c>
       <c r="I17" s="7">
-        <v>102336</v>
+        <v>95827</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>117</v>
@@ -2267,7 +2279,7 @@
         <v>229</v>
       </c>
       <c r="N17" s="7">
-        <v>169306</v>
+        <v>161014</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>120</v>
@@ -2288,7 +2300,7 @@
         <v>360</v>
       </c>
       <c r="D18" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2303,7 +2315,7 @@
         <v>530</v>
       </c>
       <c r="I18" s="7">
-        <v>369938</v>
+        <v>346025</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2318,7 +2330,7 @@
         <v>890</v>
       </c>
       <c r="N18" s="7">
-        <v>692179</v>
+        <v>662076</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2341,7 +2353,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>7942</v>
+        <v>7626</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>124</v>
@@ -2356,7 +2368,7 @@
         <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>13193</v>
+        <v>12209</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>127</v>
@@ -2371,7 +2383,7 @@
         <v>22</v>
       </c>
       <c r="N19" s="7">
-        <v>21134</v>
+        <v>19836</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>130</v>
@@ -2392,7 +2404,7 @@
         <v>33</v>
       </c>
       <c r="D20" s="7">
-        <v>34304</v>
+        <v>33673</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>133</v>
@@ -2407,31 +2419,31 @@
         <v>58</v>
       </c>
       <c r="I20" s="7">
-        <v>40889</v>
+        <v>38040</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
       </c>
       <c r="N20" s="7">
-        <v>75193</v>
+        <v>71713</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,37 +2455,37 @@
         <v>143</v>
       </c>
       <c r="D21" s="7">
-        <v>144816</v>
+        <v>138907</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>301</v>
       </c>
       <c r="I21" s="7">
-        <v>214310</v>
+        <v>254047</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M21" s="7">
         <v>444</v>
       </c>
       <c r="N21" s="7">
-        <v>359126</v>
+        <v>392954</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>147</v>
@@ -2494,7 +2506,7 @@
         <v>110</v>
       </c>
       <c r="D22" s="7">
-        <v>135178</v>
+        <v>132350</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>150</v>
@@ -2509,31 +2521,31 @@
         <v>224</v>
       </c>
       <c r="I22" s="7">
-        <v>160164</v>
+        <v>171421</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>334</v>
       </c>
       <c r="N22" s="7">
-        <v>295342</v>
+        <v>303771</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,7 +2557,7 @@
         <v>292</v>
       </c>
       <c r="D23" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2560,7 +2572,7 @@
         <v>599</v>
       </c>
       <c r="I23" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2575,7 +2587,7 @@
         <v>891</v>
       </c>
       <c r="N23" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2589,7 +2601,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2598,46 +2610,46 @@
         <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>1607</v>
+        <v>1448</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>1997</v>
+        <v>1822</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>3603</v>
+        <v>3270</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,22 +2661,22 @@
         <v>12</v>
       </c>
       <c r="D25" s="7">
-        <v>10503</v>
+        <v>9437</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>5149</v>
+        <v>4275</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>170</v>
@@ -2679,7 +2691,7 @@
         <v>20</v>
       </c>
       <c r="N25" s="7">
-        <v>15653</v>
+        <v>13711</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>173</v>
@@ -2700,7 +2712,7 @@
         <v>184</v>
       </c>
       <c r="D26" s="7">
-        <v>128045</v>
+        <v>116256</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>176</v>
@@ -2715,7 +2727,7 @@
         <v>304</v>
       </c>
       <c r="I26" s="7">
-        <v>137740</v>
+        <v>124634</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>179</v>
@@ -2730,7 +2742,7 @@
         <v>488</v>
       </c>
       <c r="N26" s="7">
-        <v>265785</v>
+        <v>240890</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>182</v>
@@ -2751,7 +2763,7 @@
         <v>81</v>
       </c>
       <c r="D27" s="7">
-        <v>56593</v>
+        <v>51602</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>185</v>
@@ -2766,7 +2778,7 @@
         <v>175</v>
       </c>
       <c r="I27" s="7">
-        <v>86610</v>
+        <v>77544</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>188</v>
@@ -2781,7 +2793,7 @@
         <v>256</v>
       </c>
       <c r="N27" s="7">
-        <v>143203</v>
+        <v>129145</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>191</v>
@@ -2802,7 +2814,7 @@
         <v>279</v>
       </c>
       <c r="D28" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2817,7 +2829,7 @@
         <v>491</v>
       </c>
       <c r="I28" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2832,7 +2844,7 @@
         <v>770</v>
       </c>
       <c r="N28" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2855,7 +2867,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>9692</v>
+        <v>9370</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>195</v>
@@ -2870,31 +2882,31 @@
         <v>12</v>
       </c>
       <c r="I29" s="7">
-        <v>9333</v>
+        <v>8679</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
       </c>
       <c r="N29" s="7">
-        <v>19025</v>
+        <v>18049</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,46 +2918,46 @@
         <v>78</v>
       </c>
       <c r="D30" s="7">
-        <v>67426</v>
+        <v>66509</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>68</v>
       </c>
       <c r="I30" s="7">
-        <v>54783</v>
+        <v>51293</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>146</v>
       </c>
       <c r="N30" s="7">
-        <v>122208</v>
+        <v>117801</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,46 +2969,46 @@
         <v>228</v>
       </c>
       <c r="D31" s="7">
-        <v>167072</v>
+        <v>162204</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>310</v>
       </c>
       <c r="I31" s="7">
-        <v>176426</v>
+        <v>164573</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>538</v>
       </c>
       <c r="N31" s="7">
-        <v>343498</v>
+        <v>326778</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,46 +3020,46 @@
         <v>56</v>
       </c>
       <c r="D32" s="7">
-        <v>33032</v>
+        <v>31553</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>70</v>
       </c>
       <c r="I32" s="7">
-        <v>35081</v>
+        <v>32511</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>126</v>
       </c>
       <c r="N32" s="7">
-        <v>68114</v>
+        <v>64064</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,7 +3071,7 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -3074,7 +3086,7 @@
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -3089,7 +3101,7 @@
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -3103,7 +3115,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3112,46 +3124,46 @@
         <v>61</v>
       </c>
       <c r="D34" s="7">
-        <v>72539</v>
+        <v>76605</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>103</v>
       </c>
       <c r="I34" s="7">
-        <v>195246</v>
+        <v>283793</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>164</v>
       </c>
       <c r="N34" s="7">
-        <v>267785</v>
+        <v>360398</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,46 +3175,46 @@
         <v>84</v>
       </c>
       <c r="D35" s="7">
-        <v>91540</v>
+        <v>92073</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>115</v>
       </c>
       <c r="I35" s="7">
-        <v>95234</v>
+        <v>88030</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>199</v>
       </c>
       <c r="N35" s="7">
-        <v>186774</v>
+        <v>180103</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,46 +3226,46 @@
         <v>241</v>
       </c>
       <c r="D36" s="7">
-        <v>251869</v>
+        <v>246808</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>420</v>
       </c>
       <c r="I36" s="7">
-        <v>291159</v>
+        <v>270488</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>661</v>
       </c>
       <c r="N36" s="7">
-        <v>543028</v>
+        <v>517296</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,46 +3277,46 @@
         <v>211</v>
       </c>
       <c r="D37" s="7">
-        <v>210569</v>
+        <v>207599</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>322</v>
       </c>
       <c r="I37" s="7">
-        <v>222564</v>
+        <v>206955</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>533</v>
       </c>
       <c r="N37" s="7">
-        <v>433133</v>
+        <v>414554</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,7 +3328,7 @@
         <v>597</v>
       </c>
       <c r="D38" s="7">
-        <v>626518</v>
+        <v>623086</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -3331,7 +3343,7 @@
         <v>960</v>
       </c>
       <c r="I38" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>50</v>
@@ -3346,7 +3358,7 @@
         <v>1557</v>
       </c>
       <c r="N38" s="7">
-        <v>1430720</v>
+        <v>1472351</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3360,7 +3372,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3369,46 +3381,46 @@
         <v>19</v>
       </c>
       <c r="D39" s="7">
-        <v>22914</v>
+        <v>19361</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H39" s="7">
         <v>23</v>
       </c>
       <c r="I39" s="7">
-        <v>18503</v>
+        <v>15377</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>269</v>
+        <v>174</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M39" s="7">
         <v>42</v>
       </c>
       <c r="N39" s="7">
-        <v>41417</v>
+        <v>34738</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,46 +3432,46 @@
         <v>77</v>
       </c>
       <c r="D40" s="7">
-        <v>83124</v>
+        <v>70243</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H40" s="7">
         <v>87</v>
       </c>
       <c r="I40" s="7">
-        <v>70201</v>
+        <v>58073</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M40" s="7">
         <v>164</v>
       </c>
       <c r="N40" s="7">
-        <v>153325</v>
+        <v>128317</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,46 +3483,46 @@
         <v>562</v>
       </c>
       <c r="D41" s="7">
-        <v>639829</v>
+        <v>743097</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H41" s="7">
         <v>818</v>
       </c>
       <c r="I41" s="7">
-        <v>666070</v>
+        <v>551583</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M41" s="7">
         <v>1380</v>
       </c>
       <c r="N41" s="7">
-        <v>1305899</v>
+        <v>1294681</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,10 +3534,10 @@
         <v>104</v>
       </c>
       <c r="D42" s="7">
-        <v>113560</v>
+        <v>96019</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>294</v>
@@ -3537,7 +3549,7 @@
         <v>134</v>
       </c>
       <c r="I42" s="7">
-        <v>113661</v>
+        <v>92698</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>296</v>
@@ -3552,7 +3564,7 @@
         <v>238</v>
       </c>
       <c r="N42" s="7">
-        <v>227221</v>
+        <v>188717</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>299</v>
@@ -3573,7 +3585,7 @@
         <v>762</v>
       </c>
       <c r="D43" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>50</v>
@@ -3588,7 +3600,7 @@
         <v>1062</v>
       </c>
       <c r="I43" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>50</v>
@@ -3603,7 +3615,7 @@
         <v>1824</v>
       </c>
       <c r="N43" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>50</v>
@@ -3626,46 +3638,46 @@
         <v>174</v>
       </c>
       <c r="D44" s="7">
-        <v>203091</v>
+        <v>204371</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>175</v>
+        <v>302</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>55</v>
+        <v>303</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H44" s="7">
         <v>246</v>
       </c>
       <c r="I44" s="7">
-        <v>302285</v>
+        <v>386008</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>420</v>
       </c>
       <c r="N44" s="7">
-        <v>505376</v>
+        <v>590379</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>167</v>
+        <v>309</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,46 +3689,46 @@
         <v>585</v>
       </c>
       <c r="D45" s="7">
-        <v>601762</v>
+        <v>608570</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H45" s="7">
         <v>788</v>
       </c>
       <c r="I45" s="7">
-        <v>560657</v>
+        <v>530565</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M45" s="7">
         <v>1373</v>
       </c>
       <c r="N45" s="7">
-        <v>1162419</v>
+        <v>1139135</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,46 +3740,46 @@
         <v>1933</v>
       </c>
       <c r="D46" s="7">
-        <v>1924589</v>
+        <v>2021844</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H46" s="7">
         <v>3173</v>
       </c>
       <c r="I46" s="7">
-        <v>2174604</v>
+        <v>2020963</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M46" s="7">
         <v>5106</v>
       </c>
       <c r="N46" s="7">
-        <v>4099194</v>
+        <v>4042807</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,46 +3791,46 @@
         <v>682</v>
       </c>
       <c r="D47" s="7">
-        <v>654549</v>
+        <v>623839</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H47" s="7">
         <v>1150</v>
       </c>
       <c r="I47" s="7">
-        <v>766671</v>
+        <v>721136</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M47" s="7">
         <v>1832</v>
       </c>
       <c r="N47" s="7">
-        <v>1421220</v>
+        <v>1344975</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,7 +3842,7 @@
         <v>3374</v>
       </c>
       <c r="D48" s="7">
-        <v>3383991</v>
+        <v>3458624</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
@@ -3845,7 +3857,7 @@
         <v>5357</v>
       </c>
       <c r="I48" s="7">
-        <v>3804218</v>
+        <v>3658672</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>50</v>
@@ -3860,7 +3872,7 @@
         <v>8731</v>
       </c>
       <c r="N48" s="7">
-        <v>7188210</v>
+        <v>7117296</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>50</v>
@@ -3874,7 +3886,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD04_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Provincia-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el consumo de fruta en 2023</t>
+          <t>Población según la frecuencia de consumo de fruta o zumos naturales en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
